--- a/sputnik/personal/cel/cel76.xlsx
+++ b/sputnik/personal/cel/cel76.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -168,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -212,6 +212,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -522,7 +523,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+      <selection activeCell="A9" sqref="A9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -622,16 +623,28 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="19">
+        <v>43952</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1000</v>
+      </c>
       <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="19">
+        <v>44032</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>

--- a/sputnik/personal/cel/cel76.xlsx
+++ b/sputnik/personal/cel/cel76.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -523,7 +523,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -647,10 +647,16 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="19">
+        <v>44193</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="7">
+        <v>431</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>

--- a/sputnik/personal/cel/cel76.xlsx
+++ b/sputnik/personal/cel/cel76.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t xml:space="preserve">Оплачен целевой взнос на освещение центральной дороги </t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -168,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -207,9 +219,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -520,10 +529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A13" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -600,7 +609,7 @@
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
-        <v>43630</v>
+        <v>43774</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -611,8 +620,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>43630</v>
+      <c r="A8" s="17">
+        <v>43774</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
@@ -623,52 +632,118 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>43952</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="13"/>
+      <c r="A9" s="17">
+        <v>43774</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="7">
+        <v>431</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>44032</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>8</v>
+      <c r="A10" s="17">
+        <v>43774</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>44193</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="7">
-        <v>431</v>
-      </c>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="18">
+        <v>44032</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="18">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1000</v>
+      </c>
       <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>44317</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1619</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel76.xlsx
+++ b/sputnik/personal/cel/cel76.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -532,7 +538,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C14"/>
+      <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -704,16 +710,28 @@
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="18">
+        <v>44396</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="18">
+        <v>44396</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11">
+        <v>1619</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
